--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1779"/>
+  <dimension ref="A1:R1780"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -99581,7 +99581,7 @@
         <v>23</v>
       </c>
       <c r="O1770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1770" t="n">
         <v>0</v>
@@ -100093,7 +100093,63 @@
       <c r="Q1779" t="n">
         <v>0</v>
       </c>
-      <c r="R1779" t="inlineStr"/>
+      <c r="R1779" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1780">
+      <c r="A1780" s="2" t="n">
+        <v>45462</v>
+      </c>
+      <c r="B1780" t="n">
+        <v>704.7999877929688</v>
+      </c>
+      <c r="C1780" t="n">
+        <v>705.75</v>
+      </c>
+      <c r="D1780" t="n">
+        <v>685</v>
+      </c>
+      <c r="E1780" t="n">
+        <v>686.4500122070312</v>
+      </c>
+      <c r="F1780" t="n">
+        <v>686.4500122070312</v>
+      </c>
+      <c r="G1780" t="n">
+        <v>104303</v>
+      </c>
+      <c r="H1780" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1780" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1780" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1780" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1780" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1780" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1780" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1780"/>
+  <dimension ref="A1:R1787"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100149,7 +100149,387 @@
       <c r="Q1780" t="n">
         <v>2</v>
       </c>
-      <c r="R1780" t="inlineStr"/>
+      <c r="R1780" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1781">
+      <c r="A1781" s="2" t="n">
+        <v>45463</v>
+      </c>
+      <c r="B1781" t="n">
+        <v>686.4500122070312</v>
+      </c>
+      <c r="C1781" t="n">
+        <v>700</v>
+      </c>
+      <c r="D1781" t="n">
+        <v>685.5999755859375</v>
+      </c>
+      <c r="E1781" t="n">
+        <v>694.2999877929688</v>
+      </c>
+      <c r="F1781" t="n">
+        <v>694.2999877929688</v>
+      </c>
+      <c r="G1781" t="n">
+        <v>84242</v>
+      </c>
+      <c r="H1781" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1781" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1781" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1781" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1781" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1781" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1781" t="inlineStr"/>
+    </row>
+    <row r="1782">
+      <c r="A1782" s="2" t="n">
+        <v>45464</v>
+      </c>
+      <c r="B1782" t="n">
+        <v>694.2999877929688</v>
+      </c>
+      <c r="C1782" t="n">
+        <v>712.7999877929688</v>
+      </c>
+      <c r="D1782" t="n">
+        <v>688.0999755859375</v>
+      </c>
+      <c r="E1782" t="n">
+        <v>707.2000122070312</v>
+      </c>
+      <c r="F1782" t="n">
+        <v>707.2000122070312</v>
+      </c>
+      <c r="G1782" t="n">
+        <v>114774</v>
+      </c>
+      <c r="H1782" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1782" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1782" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1782" t="n">
+        <v>25</v>
+      </c>
+      <c r="O1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1782" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1782" t="inlineStr"/>
+    </row>
+    <row r="1783">
+      <c r="A1783" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B1783" t="n">
+        <v>706</v>
+      </c>
+      <c r="C1783" t="n">
+        <v>707.5499877929688</v>
+      </c>
+      <c r="D1783" t="n">
+        <v>693</v>
+      </c>
+      <c r="E1783" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="F1783" t="n">
+        <v>695.7999877929688</v>
+      </c>
+      <c r="G1783" t="n">
+        <v>47808</v>
+      </c>
+      <c r="H1783" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1783" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1783" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1783" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1783" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1783" t="inlineStr"/>
+    </row>
+    <row r="1784">
+      <c r="A1784" s="2" t="n">
+        <v>45468</v>
+      </c>
+      <c r="B1784" t="n">
+        <v>701</v>
+      </c>
+      <c r="C1784" t="n">
+        <v>701</v>
+      </c>
+      <c r="D1784" t="n">
+        <v>687</v>
+      </c>
+      <c r="E1784" t="n">
+        <v>691.9000244140625</v>
+      </c>
+      <c r="F1784" t="n">
+        <v>691.9000244140625</v>
+      </c>
+      <c r="G1784" t="n">
+        <v>62683</v>
+      </c>
+      <c r="H1784" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1784" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1784" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1784" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1784" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1784" t="inlineStr"/>
+    </row>
+    <row r="1785">
+      <c r="A1785" s="2" t="n">
+        <v>45469</v>
+      </c>
+      <c r="B1785" t="n">
+        <v>691.9000244140625</v>
+      </c>
+      <c r="C1785" t="n">
+        <v>703.2999877929688</v>
+      </c>
+      <c r="D1785" t="n">
+        <v>686.5499877929688</v>
+      </c>
+      <c r="E1785" t="n">
+        <v>693.4500122070312</v>
+      </c>
+      <c r="F1785" t="n">
+        <v>693.4500122070312</v>
+      </c>
+      <c r="G1785" t="n">
+        <v>51072</v>
+      </c>
+      <c r="H1785" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1785" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1785" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1785" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1785" t="inlineStr"/>
+    </row>
+    <row r="1786">
+      <c r="A1786" s="2" t="n">
+        <v>45470</v>
+      </c>
+      <c r="B1786" t="n">
+        <v>699.9000244140625</v>
+      </c>
+      <c r="C1786" t="n">
+        <v>705</v>
+      </c>
+      <c r="D1786" t="n">
+        <v>678</v>
+      </c>
+      <c r="E1786" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="F1786" t="n">
+        <v>680.4000244140625</v>
+      </c>
+      <c r="G1786" t="n">
+        <v>91493</v>
+      </c>
+      <c r="H1786" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1786" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1786" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1786" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1786" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1786" t="inlineStr"/>
+    </row>
+    <row r="1787">
+      <c r="A1787" s="2" t="n">
+        <v>45471</v>
+      </c>
+      <c r="B1787" t="n">
+        <v>683.8499755859375</v>
+      </c>
+      <c r="C1787" t="n">
+        <v>693.75</v>
+      </c>
+      <c r="D1787" t="n">
+        <v>679.9000244140625</v>
+      </c>
+      <c r="E1787" t="n">
+        <v>684.25</v>
+      </c>
+      <c r="F1787" t="n">
+        <v>684.25</v>
+      </c>
+      <c r="G1787" t="n">
+        <v>88227</v>
+      </c>
+      <c r="H1787" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1787" t="n">
+        <v>6</v>
+      </c>
+      <c r="J1787" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1787" t="n">
+        <v>26</v>
+      </c>
+      <c r="O1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1787" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1787" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -100205,7 +100205,9 @@
       <c r="Q1781" t="n">
         <v>1</v>
       </c>
-      <c r="R1781" t="inlineStr"/>
+      <c r="R1781" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1782">
       <c r="A1782" s="2" t="n">
@@ -100259,7 +100261,9 @@
       <c r="Q1782" t="n">
         <v>0</v>
       </c>
-      <c r="R1782" t="inlineStr"/>
+      <c r="R1782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1783">
       <c r="A1783" s="2" t="n">
@@ -100313,7 +100317,9 @@
       <c r="Q1783" t="n">
         <v>0</v>
       </c>
-      <c r="R1783" t="inlineStr"/>
+      <c r="R1783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1784">
       <c r="A1784" s="2" t="n">
@@ -100367,7 +100373,9 @@
       <c r="Q1784" t="n">
         <v>0</v>
       </c>
-      <c r="R1784" t="inlineStr"/>
+      <c r="R1784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1785">
       <c r="A1785" s="2" t="n">
@@ -100421,7 +100429,9 @@
       <c r="Q1785" t="n">
         <v>0</v>
       </c>
-      <c r="R1785" t="inlineStr"/>
+      <c r="R1785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1786">
       <c r="A1786" s="2" t="n">
@@ -100475,7 +100485,9 @@
       <c r="Q1786" t="n">
         <v>0</v>
       </c>
-      <c r="R1786" t="inlineStr"/>
+      <c r="R1786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1787">
       <c r="A1787" s="2" t="n">
@@ -100529,7 +100541,9 @@
       <c r="Q1787" t="n">
         <v>0</v>
       </c>
-      <c r="R1787" t="inlineStr"/>
+      <c r="R1787" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1787"/>
+  <dimension ref="A1:R1792"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100545,6 +100545,276 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1788">
+      <c r="A1788" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B1788" t="n">
+        <v>692</v>
+      </c>
+      <c r="C1788" t="n">
+        <v>692</v>
+      </c>
+      <c r="D1788" t="n">
+        <v>682.7000122070312</v>
+      </c>
+      <c r="E1788" t="n">
+        <v>690</v>
+      </c>
+      <c r="F1788" t="n">
+        <v>690</v>
+      </c>
+      <c r="G1788" t="n">
+        <v>43842</v>
+      </c>
+      <c r="H1788" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1788" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1788" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1788" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1788" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1788" t="inlineStr"/>
+    </row>
+    <row r="1789">
+      <c r="A1789" s="2" t="n">
+        <v>45475</v>
+      </c>
+      <c r="B1789" t="n">
+        <v>690</v>
+      </c>
+      <c r="C1789" t="n">
+        <v>707.8499755859375</v>
+      </c>
+      <c r="D1789" t="n">
+        <v>690</v>
+      </c>
+      <c r="E1789" t="n">
+        <v>698.2999877929688</v>
+      </c>
+      <c r="F1789" t="n">
+        <v>698.2999877929688</v>
+      </c>
+      <c r="G1789" t="n">
+        <v>85031</v>
+      </c>
+      <c r="H1789" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1789" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1789" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1789" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1789" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1789" t="inlineStr"/>
+    </row>
+    <row r="1790">
+      <c r="A1790" s="2" t="n">
+        <v>45476</v>
+      </c>
+      <c r="B1790" t="n">
+        <v>701.7999877929688</v>
+      </c>
+      <c r="C1790" t="n">
+        <v>739.2000122070312</v>
+      </c>
+      <c r="D1790" t="n">
+        <v>699.5499877929688</v>
+      </c>
+      <c r="E1790" t="n">
+        <v>714.7999877929688</v>
+      </c>
+      <c r="F1790" t="n">
+        <v>714.7999877929688</v>
+      </c>
+      <c r="G1790" t="n">
+        <v>782979</v>
+      </c>
+      <c r="H1790" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1790" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1790" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1790" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1790" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1790" t="inlineStr"/>
+    </row>
+    <row r="1791">
+      <c r="A1791" s="2" t="n">
+        <v>45477</v>
+      </c>
+      <c r="B1791" t="n">
+        <v>716.2000122070312</v>
+      </c>
+      <c r="C1791" t="n">
+        <v>728</v>
+      </c>
+      <c r="D1791" t="n">
+        <v>707</v>
+      </c>
+      <c r="E1791" t="n">
+        <v>716.2000122070312</v>
+      </c>
+      <c r="F1791" t="n">
+        <v>716.2000122070312</v>
+      </c>
+      <c r="G1791" t="n">
+        <v>152556</v>
+      </c>
+      <c r="H1791" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1791" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1791" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1791" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1791" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1791" t="inlineStr"/>
+    </row>
+    <row r="1792">
+      <c r="A1792" s="2" t="n">
+        <v>45478</v>
+      </c>
+      <c r="B1792" t="n">
+        <v>710</v>
+      </c>
+      <c r="C1792" t="n">
+        <v>734.9000244140625</v>
+      </c>
+      <c r="D1792" t="n">
+        <v>702.9000244140625</v>
+      </c>
+      <c r="E1792" t="n">
+        <v>705.3499755859375</v>
+      </c>
+      <c r="F1792" t="n">
+        <v>705.3499755859375</v>
+      </c>
+      <c r="G1792" t="n">
+        <v>237139</v>
+      </c>
+      <c r="H1792" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1792" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1792" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1792" t="n">
+        <v>27</v>
+      </c>
+      <c r="O1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1792" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1792" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1792"/>
+  <dimension ref="A1:R1801"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -100477,7 +100477,7 @@
         <v>26</v>
       </c>
       <c r="O1786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1786" t="n">
         <v>0</v>
@@ -100597,7 +100597,9 @@
       <c r="Q1788" t="n">
         <v>0</v>
       </c>
-      <c r="R1788" t="inlineStr"/>
+      <c r="R1788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1789">
       <c r="A1789" s="2" t="n">
@@ -100651,7 +100653,9 @@
       <c r="Q1789" t="n">
         <v>0</v>
       </c>
-      <c r="R1789" t="inlineStr"/>
+      <c r="R1789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1790">
       <c r="A1790" s="2" t="n">
@@ -100697,7 +100701,7 @@
         <v>27</v>
       </c>
       <c r="O1790" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1790" t="n">
         <v>0</v>
@@ -100705,7 +100709,9 @@
       <c r="Q1790" t="n">
         <v>0</v>
       </c>
-      <c r="R1790" t="inlineStr"/>
+      <c r="R1790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1791">
       <c r="A1791" s="2" t="n">
@@ -100759,7 +100765,9 @@
       <c r="Q1791" t="n">
         <v>0</v>
       </c>
-      <c r="R1791" t="inlineStr"/>
+      <c r="R1791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1792">
       <c r="A1792" s="2" t="n">
@@ -100813,7 +100821,495 @@
       <c r="Q1792" t="n">
         <v>0</v>
       </c>
-      <c r="R1792" t="inlineStr"/>
+      <c r="R1792" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1793">
+      <c r="A1793" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B1793" t="n">
+        <v>715.9500122070312</v>
+      </c>
+      <c r="C1793" t="n">
+        <v>717.5999755859375</v>
+      </c>
+      <c r="D1793" t="n">
+        <v>703.3499755859375</v>
+      </c>
+      <c r="E1793" t="n">
+        <v>713.1500244140625</v>
+      </c>
+      <c r="F1793" t="n">
+        <v>713.1500244140625</v>
+      </c>
+      <c r="G1793" t="n">
+        <v>91322</v>
+      </c>
+      <c r="H1793" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1793" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1793" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1793" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1793" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1793" t="inlineStr"/>
+    </row>
+    <row r="1794">
+      <c r="A1794" s="2" t="n">
+        <v>45482</v>
+      </c>
+      <c r="B1794" t="n">
+        <v>714.7000122070312</v>
+      </c>
+      <c r="C1794" t="n">
+        <v>725</v>
+      </c>
+      <c r="D1794" t="n">
+        <v>707.5</v>
+      </c>
+      <c r="E1794" t="n">
+        <v>709.9000244140625</v>
+      </c>
+      <c r="F1794" t="n">
+        <v>709.9000244140625</v>
+      </c>
+      <c r="G1794" t="n">
+        <v>57285</v>
+      </c>
+      <c r="H1794" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1794" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1794" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1794" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1794" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1794" t="inlineStr"/>
+    </row>
+    <row r="1795">
+      <c r="A1795" s="2" t="n">
+        <v>45483</v>
+      </c>
+      <c r="B1795" t="n">
+        <v>713.4500122070312</v>
+      </c>
+      <c r="C1795" t="n">
+        <v>713.4500122070312</v>
+      </c>
+      <c r="D1795" t="n">
+        <v>685.2999877929688</v>
+      </c>
+      <c r="E1795" t="n">
+        <v>691.0499877929688</v>
+      </c>
+      <c r="F1795" t="n">
+        <v>691.0499877929688</v>
+      </c>
+      <c r="G1795" t="n">
+        <v>103737</v>
+      </c>
+      <c r="H1795" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1795" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1795" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1795" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1795" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1795" t="inlineStr"/>
+    </row>
+    <row r="1796">
+      <c r="A1796" s="2" t="n">
+        <v>45484</v>
+      </c>
+      <c r="B1796" t="n">
+        <v>686</v>
+      </c>
+      <c r="C1796" t="n">
+        <v>706</v>
+      </c>
+      <c r="D1796" t="n">
+        <v>686</v>
+      </c>
+      <c r="E1796" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="F1796" t="n">
+        <v>700.5</v>
+      </c>
+      <c r="G1796" t="n">
+        <v>67914</v>
+      </c>
+      <c r="H1796" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1796" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1796" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1796" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1796" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1796" t="inlineStr"/>
+    </row>
+    <row r="1797">
+      <c r="A1797" s="2" t="n">
+        <v>45485</v>
+      </c>
+      <c r="B1797" t="n">
+        <v>702</v>
+      </c>
+      <c r="C1797" t="n">
+        <v>708</v>
+      </c>
+      <c r="D1797" t="n">
+        <v>693.0499877929688</v>
+      </c>
+      <c r="E1797" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="F1797" t="n">
+        <v>699.5999755859375</v>
+      </c>
+      <c r="G1797" t="n">
+        <v>78018</v>
+      </c>
+      <c r="H1797" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1797" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1797" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1797" t="n">
+        <v>28</v>
+      </c>
+      <c r="O1797" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q1797" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1797" t="inlineStr"/>
+    </row>
+    <row r="1798">
+      <c r="A1798" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B1798" t="n">
+        <v>703.0999755859375</v>
+      </c>
+      <c r="C1798" t="n">
+        <v>707.4000244140625</v>
+      </c>
+      <c r="D1798" t="n">
+        <v>693.0999755859375</v>
+      </c>
+      <c r="E1798" t="n">
+        <v>694.6500244140625</v>
+      </c>
+      <c r="F1798" t="n">
+        <v>694.6500244140625</v>
+      </c>
+      <c r="G1798" t="n">
+        <v>52540</v>
+      </c>
+      <c r="H1798" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1798" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1798" t="n">
+        <v>15</v>
+      </c>
+      <c r="K1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1798" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1798" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1798" t="inlineStr"/>
+    </row>
+    <row r="1799">
+      <c r="A1799" s="2" t="n">
+        <v>45489</v>
+      </c>
+      <c r="B1799" t="n">
+        <v>697.9500122070312</v>
+      </c>
+      <c r="C1799" t="n">
+        <v>709.9000244140625</v>
+      </c>
+      <c r="D1799" t="n">
+        <v>695.6500244140625</v>
+      </c>
+      <c r="E1799" t="n">
+        <v>696.9000244140625</v>
+      </c>
+      <c r="F1799" t="n">
+        <v>696.9000244140625</v>
+      </c>
+      <c r="G1799" t="n">
+        <v>56857</v>
+      </c>
+      <c r="H1799" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1799" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1799" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1799" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1799" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1799" t="inlineStr"/>
+    </row>
+    <row r="1800">
+      <c r="A1800" s="2" t="n">
+        <v>45491</v>
+      </c>
+      <c r="B1800" t="n">
+        <v>697</v>
+      </c>
+      <c r="C1800" t="n">
+        <v>697</v>
+      </c>
+      <c r="D1800" t="n">
+        <v>680</v>
+      </c>
+      <c r="E1800" t="n">
+        <v>684.6500244140625</v>
+      </c>
+      <c r="F1800" t="n">
+        <v>684.6500244140625</v>
+      </c>
+      <c r="G1800" t="n">
+        <v>82188</v>
+      </c>
+      <c r="H1800" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1800" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1800" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1800" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1800" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1800" t="inlineStr"/>
+    </row>
+    <row r="1801">
+      <c r="A1801" s="2" t="n">
+        <v>45492</v>
+      </c>
+      <c r="B1801" t="n">
+        <v>681.25</v>
+      </c>
+      <c r="C1801" t="n">
+        <v>681.2999877929688</v>
+      </c>
+      <c r="D1801" t="n">
+        <v>660.7000122070312</v>
+      </c>
+      <c r="E1801" t="n">
+        <v>666.4500122070312</v>
+      </c>
+      <c r="F1801" t="n">
+        <v>666.4500122070312</v>
+      </c>
+      <c r="G1801" t="n">
+        <v>107284</v>
+      </c>
+      <c r="H1801" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1801" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1801" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1801" t="n">
+        <v>29</v>
+      </c>
+      <c r="O1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1801" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q1801" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1801" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1801"/>
+  <dimension ref="A1:R1811"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="R149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="R332" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="R386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -38102,7 +38102,7 @@
         <v>1</v>
       </c>
       <c r="R672" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="673">
@@ -47118,7 +47118,7 @@
         <v>0</v>
       </c>
       <c r="R833" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="834">
@@ -47230,7 +47230,7 @@
         <v>2</v>
       </c>
       <c r="R835" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="836">
@@ -47902,7 +47902,7 @@
         <v>2</v>
       </c>
       <c r="R847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="848">
@@ -49190,7 +49190,7 @@
         <v>0</v>
       </c>
       <c r="R870" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="871">
@@ -59438,7 +59438,7 @@
         <v>0</v>
       </c>
       <c r="R1053" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1054">
@@ -62910,7 +62910,7 @@
         <v>0</v>
       </c>
       <c r="R1115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1116">
@@ -64198,7 +64198,7 @@
         <v>0</v>
       </c>
       <c r="R1138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1139">
@@ -64702,7 +64702,7 @@
         <v>2</v>
       </c>
       <c r="R1147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1148">
@@ -66326,7 +66326,7 @@
         <v>0</v>
       </c>
       <c r="R1176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1177">
@@ -66494,7 +66494,7 @@
         <v>2</v>
       </c>
       <c r="R1179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1180">
@@ -67782,7 +67782,7 @@
         <v>0</v>
       </c>
       <c r="R1202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1203">
@@ -69854,7 +69854,7 @@
         <v>2</v>
       </c>
       <c r="R1239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1240">
@@ -70918,7 +70918,7 @@
         <v>2</v>
       </c>
       <c r="R1258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259">
@@ -71758,7 +71758,7 @@
         <v>0</v>
       </c>
       <c r="R1273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1274">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1290">
@@ -74894,7 +74894,7 @@
         <v>0</v>
       </c>
       <c r="R1329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1330">
@@ -75286,7 +75286,7 @@
         <v>1</v>
       </c>
       <c r="R1336" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1337">
@@ -76182,7 +76182,7 @@
         <v>0</v>
       </c>
       <c r="R1352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1353">
@@ -79710,7 +79710,7 @@
         <v>0</v>
       </c>
       <c r="R1415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1416">
@@ -80438,7 +80438,7 @@
         <v>1</v>
       </c>
       <c r="R1428" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1429">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1470">
@@ -86486,7 +86486,7 @@
         <v>2</v>
       </c>
       <c r="R1536" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1537">
@@ -92030,7 +92030,7 @@
         <v>1</v>
       </c>
       <c r="R1635" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1636">
@@ -94046,7 +94046,7 @@
         <v>0</v>
       </c>
       <c r="R1671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1672">
@@ -94550,7 +94550,7 @@
         <v>1</v>
       </c>
       <c r="R1680" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1681">
@@ -96230,7 +96230,7 @@
         <v>2</v>
       </c>
       <c r="R1710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1711">
@@ -98022,7 +98022,7 @@
         <v>2</v>
       </c>
       <c r="R1742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1743">
@@ -99366,7 +99366,7 @@
         <v>0</v>
       </c>
       <c r="R1766" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1767">
@@ -100150,7 +100150,7 @@
         <v>2</v>
       </c>
       <c r="R1780" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1781">
@@ -100877,7 +100877,9 @@
       <c r="Q1793" t="n">
         <v>0</v>
       </c>
-      <c r="R1793" t="inlineStr"/>
+      <c r="R1793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1794">
       <c r="A1794" s="2" t="n">
@@ -100931,7 +100933,9 @@
       <c r="Q1794" t="n">
         <v>0</v>
       </c>
-      <c r="R1794" t="inlineStr"/>
+      <c r="R1794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1795">
       <c r="A1795" s="2" t="n">
@@ -100985,7 +100989,9 @@
       <c r="Q1795" t="n">
         <v>0</v>
       </c>
-      <c r="R1795" t="inlineStr"/>
+      <c r="R1795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1796">
       <c r="A1796" s="2" t="n">
@@ -101039,7 +101045,9 @@
       <c r="Q1796" t="n">
         <v>0</v>
       </c>
-      <c r="R1796" t="inlineStr"/>
+      <c r="R1796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1797">
       <c r="A1797" s="2" t="n">
@@ -101093,7 +101101,9 @@
       <c r="Q1797" t="n">
         <v>1</v>
       </c>
-      <c r="R1797" t="inlineStr"/>
+      <c r="R1797" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="1798">
       <c r="A1798" s="2" t="n">
@@ -101147,7 +101157,9 @@
       <c r="Q1798" t="n">
         <v>0</v>
       </c>
-      <c r="R1798" t="inlineStr"/>
+      <c r="R1798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1799">
       <c r="A1799" s="2" t="n">
@@ -101201,7 +101213,9 @@
       <c r="Q1799" t="n">
         <v>0</v>
       </c>
-      <c r="R1799" t="inlineStr"/>
+      <c r="R1799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1800">
       <c r="A1800" s="2" t="n">
@@ -101255,7 +101269,9 @@
       <c r="Q1800" t="n">
         <v>0</v>
       </c>
-      <c r="R1800" t="inlineStr"/>
+      <c r="R1800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1801">
       <c r="A1801" s="2" t="n">
@@ -101309,7 +101325,549 @@
       <c r="Q1801" t="n">
         <v>0</v>
       </c>
-      <c r="R1801" t="inlineStr"/>
+      <c r="R1801" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1802">
+      <c r="A1802" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B1802" t="n">
+        <v>666.4500122070312</v>
+      </c>
+      <c r="C1802" t="n">
+        <v>684.5</v>
+      </c>
+      <c r="D1802" t="n">
+        <v>649.0499877929688</v>
+      </c>
+      <c r="E1802" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="F1802" t="n">
+        <v>675.25</v>
+      </c>
+      <c r="G1802" t="n">
+        <v>53928</v>
+      </c>
+      <c r="H1802" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1802" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1802" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1802" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1802" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1802" t="inlineStr"/>
+    </row>
+    <row r="1803">
+      <c r="A1803" s="2" t="n">
+        <v>45496</v>
+      </c>
+      <c r="B1803" t="n">
+        <v>685</v>
+      </c>
+      <c r="C1803" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1803" t="n">
+        <v>663</v>
+      </c>
+      <c r="E1803" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="F1803" t="n">
+        <v>680.5</v>
+      </c>
+      <c r="G1803" t="n">
+        <v>59543</v>
+      </c>
+      <c r="H1803" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1803" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1803" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1803" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1803" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1803" t="inlineStr"/>
+    </row>
+    <row r="1804">
+      <c r="A1804" s="2" t="n">
+        <v>45497</v>
+      </c>
+      <c r="B1804" t="n">
+        <v>683.9000244140625</v>
+      </c>
+      <c r="C1804" t="n">
+        <v>692</v>
+      </c>
+      <c r="D1804" t="n">
+        <v>666</v>
+      </c>
+      <c r="E1804" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="F1804" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="G1804" t="n">
+        <v>60189</v>
+      </c>
+      <c r="H1804" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1804" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1804" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1804" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1804" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1804" t="inlineStr"/>
+    </row>
+    <row r="1805">
+      <c r="A1805" s="2" t="n">
+        <v>45498</v>
+      </c>
+      <c r="B1805" t="n">
+        <v>686.9500122070312</v>
+      </c>
+      <c r="C1805" t="n">
+        <v>689.5499877929688</v>
+      </c>
+      <c r="D1805" t="n">
+        <v>674.0499877929688</v>
+      </c>
+      <c r="E1805" t="n">
+        <v>677.8499755859375</v>
+      </c>
+      <c r="F1805" t="n">
+        <v>677.8499755859375</v>
+      </c>
+      <c r="G1805" t="n">
+        <v>71572</v>
+      </c>
+      <c r="H1805" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1805" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1805" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1805" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1805" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1805" t="inlineStr"/>
+    </row>
+    <row r="1806">
+      <c r="A1806" s="2" t="n">
+        <v>45499</v>
+      </c>
+      <c r="B1806" t="n">
+        <v>678.2000122070312</v>
+      </c>
+      <c r="C1806" t="n">
+        <v>685</v>
+      </c>
+      <c r="D1806" t="n">
+        <v>673.0999755859375</v>
+      </c>
+      <c r="E1806" t="n">
+        <v>674.0499877929688</v>
+      </c>
+      <c r="F1806" t="n">
+        <v>674.0499877929688</v>
+      </c>
+      <c r="G1806" t="n">
+        <v>61597</v>
+      </c>
+      <c r="H1806" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1806" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1806" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1806" t="n">
+        <v>30</v>
+      </c>
+      <c r="O1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1806" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1806" t="inlineStr"/>
+    </row>
+    <row r="1807">
+      <c r="A1807" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B1807" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="C1807" t="n">
+        <v>682</v>
+      </c>
+      <c r="D1807" t="n">
+        <v>674.4000244140625</v>
+      </c>
+      <c r="E1807" t="n">
+        <v>679.2000122070312</v>
+      </c>
+      <c r="F1807" t="n">
+        <v>679.2000122070312</v>
+      </c>
+      <c r="G1807" t="n">
+        <v>34532</v>
+      </c>
+      <c r="H1807" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1807" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1807" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1807" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1807" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1807" t="inlineStr"/>
+    </row>
+    <row r="1808">
+      <c r="A1808" s="2" t="n">
+        <v>45503</v>
+      </c>
+      <c r="B1808" t="n">
+        <v>680</v>
+      </c>
+      <c r="C1808" t="n">
+        <v>684.4000244140625</v>
+      </c>
+      <c r="D1808" t="n">
+        <v>675.75</v>
+      </c>
+      <c r="E1808" t="n">
+        <v>679.9500122070312</v>
+      </c>
+      <c r="F1808" t="n">
+        <v>679.9500122070312</v>
+      </c>
+      <c r="G1808" t="n">
+        <v>28622</v>
+      </c>
+      <c r="H1808" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1808" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1808" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1808" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1808" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1808" t="inlineStr"/>
+    </row>
+    <row r="1809">
+      <c r="A1809" s="2" t="n">
+        <v>45504</v>
+      </c>
+      <c r="B1809" t="n">
+        <v>683.2999877929688</v>
+      </c>
+      <c r="C1809" t="n">
+        <v>688.4000244140625</v>
+      </c>
+      <c r="D1809" t="n">
+        <v>679.9500122070312</v>
+      </c>
+      <c r="E1809" t="n">
+        <v>682.2999877929688</v>
+      </c>
+      <c r="F1809" t="n">
+        <v>682.2999877929688</v>
+      </c>
+      <c r="G1809" t="n">
+        <v>36383</v>
+      </c>
+      <c r="H1809" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1809" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1809" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1809" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1809" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1809" t="inlineStr"/>
+    </row>
+    <row r="1810">
+      <c r="A1810" s="2" t="n">
+        <v>45505</v>
+      </c>
+      <c r="B1810" t="n">
+        <v>685</v>
+      </c>
+      <c r="C1810" t="n">
+        <v>689.2000122070312</v>
+      </c>
+      <c r="D1810" t="n">
+        <v>673</v>
+      </c>
+      <c r="E1810" t="n">
+        <v>675.0499877929688</v>
+      </c>
+      <c r="F1810" t="n">
+        <v>675.0499877929688</v>
+      </c>
+      <c r="G1810" t="n">
+        <v>34303</v>
+      </c>
+      <c r="H1810" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1810" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1810" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1810" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1810" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1810" t="inlineStr"/>
+    </row>
+    <row r="1811">
+      <c r="A1811" s="2" t="n">
+        <v>45506</v>
+      </c>
+      <c r="B1811" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="C1811" t="n">
+        <v>673.2999877929688</v>
+      </c>
+      <c r="D1811" t="n">
+        <v>663</v>
+      </c>
+      <c r="E1811" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="F1811" t="n">
+        <v>664.5999755859375</v>
+      </c>
+      <c r="G1811" t="n">
+        <v>48553</v>
+      </c>
+      <c r="H1811" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1811" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1811" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1811" t="n">
+        <v>31</v>
+      </c>
+      <c r="O1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1811" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1811" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1811"/>
+  <dimension ref="A1:R1816"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6182,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="R102" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103">
@@ -8814,7 +8814,7 @@
         <v>0</v>
       </c>
       <c r="R149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150">
@@ -9542,7 +9542,7 @@
         <v>0</v>
       </c>
       <c r="R162" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163">
@@ -19062,7 +19062,7 @@
         <v>0</v>
       </c>
       <c r="R332" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333">
@@ -22086,7 +22086,7 @@
         <v>0</v>
       </c>
       <c r="R386" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="387">
@@ -38102,7 +38102,7 @@
         <v>1</v>
       </c>
       <c r="R672" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -47118,7 +47118,7 @@
         <v>0</v>
       </c>
       <c r="R833" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834">
@@ -47230,7 +47230,7 @@
         <v>2</v>
       </c>
       <c r="R835" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="836">
@@ -47902,7 +47902,7 @@
         <v>2</v>
       </c>
       <c r="R847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="848">
@@ -49190,7 +49190,7 @@
         <v>0</v>
       </c>
       <c r="R870" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="871">
@@ -59438,7 +59438,7 @@
         <v>0</v>
       </c>
       <c r="R1053" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1054">
@@ -62910,7 +62910,7 @@
         <v>0</v>
       </c>
       <c r="R1115" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1116">
@@ -64198,7 +64198,7 @@
         <v>0</v>
       </c>
       <c r="R1138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1139">
@@ -64702,7 +64702,7 @@
         <v>2</v>
       </c>
       <c r="R1147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1148">
@@ -66326,7 +66326,7 @@
         <v>0</v>
       </c>
       <c r="R1176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1177">
@@ -66494,7 +66494,7 @@
         <v>2</v>
       </c>
       <c r="R1179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1180">
@@ -67782,7 +67782,7 @@
         <v>0</v>
       </c>
       <c r="R1202" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1203">
@@ -69854,7 +69854,7 @@
         <v>2</v>
       </c>
       <c r="R1239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240">
@@ -70918,7 +70918,7 @@
         <v>2</v>
       </c>
       <c r="R1258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1259">
@@ -71758,7 +71758,7 @@
         <v>0</v>
       </c>
       <c r="R1273" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1274">
@@ -72654,7 +72654,7 @@
         <v>2</v>
       </c>
       <c r="R1289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1290">
@@ -74894,7 +74894,7 @@
         <v>0</v>
       </c>
       <c r="R1329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1330">
@@ -75286,7 +75286,7 @@
         <v>1</v>
       </c>
       <c r="R1336" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1337">
@@ -76182,7 +76182,7 @@
         <v>0</v>
       </c>
       <c r="R1352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1353">
@@ -79710,7 +79710,7 @@
         <v>0</v>
       </c>
       <c r="R1415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416">
@@ -80438,7 +80438,7 @@
         <v>1</v>
       </c>
       <c r="R1428" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1429">
@@ -82734,7 +82734,7 @@
         <v>2</v>
       </c>
       <c r="R1469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1470">
@@ -86486,7 +86486,7 @@
         <v>2</v>
       </c>
       <c r="R1536" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1537">
@@ -92030,7 +92030,7 @@
         <v>1</v>
       </c>
       <c r="R1635" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1636">
@@ -94046,7 +94046,7 @@
         <v>0</v>
       </c>
       <c r="R1671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1672">
@@ -94550,7 +94550,7 @@
         <v>1</v>
       </c>
       <c r="R1680" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1681">
@@ -96230,7 +96230,7 @@
         <v>2</v>
       </c>
       <c r="R1710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1711">
@@ -98022,7 +98022,7 @@
         <v>2</v>
       </c>
       <c r="R1742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1743">
@@ -99366,7 +99366,7 @@
         <v>0</v>
       </c>
       <c r="R1766" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1767">
@@ -100150,7 +100150,7 @@
         <v>2</v>
       </c>
       <c r="R1780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1781">
@@ -101326,7 +101326,7 @@
         <v>0</v>
       </c>
       <c r="R1801" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1802">
@@ -101381,7 +101381,9 @@
       <c r="Q1802" t="n">
         <v>0</v>
       </c>
-      <c r="R1802" t="inlineStr"/>
+      <c r="R1802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1803">
       <c r="A1803" s="2" t="n">
@@ -101435,7 +101437,9 @@
       <c r="Q1803" t="n">
         <v>0</v>
       </c>
-      <c r="R1803" t="inlineStr"/>
+      <c r="R1803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1804">
       <c r="A1804" s="2" t="n">
@@ -101489,7 +101493,9 @@
       <c r="Q1804" t="n">
         <v>0</v>
       </c>
-      <c r="R1804" t="inlineStr"/>
+      <c r="R1804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1805">
       <c r="A1805" s="2" t="n">
@@ -101543,7 +101549,9 @@
       <c r="Q1805" t="n">
         <v>0</v>
       </c>
-      <c r="R1805" t="inlineStr"/>
+      <c r="R1805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1806">
       <c r="A1806" s="2" t="n">
@@ -101597,7 +101605,9 @@
       <c r="Q1806" t="n">
         <v>0</v>
       </c>
-      <c r="R1806" t="inlineStr"/>
+      <c r="R1806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1807">
       <c r="A1807" s="2" t="n">
@@ -101651,7 +101661,9 @@
       <c r="Q1807" t="n">
         <v>0</v>
       </c>
-      <c r="R1807" t="inlineStr"/>
+      <c r="R1807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1808">
       <c r="A1808" s="2" t="n">
@@ -101705,7 +101717,9 @@
       <c r="Q1808" t="n">
         <v>0</v>
       </c>
-      <c r="R1808" t="inlineStr"/>
+      <c r="R1808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1809">
       <c r="A1809" s="2" t="n">
@@ -101759,7 +101773,9 @@
       <c r="Q1809" t="n">
         <v>0</v>
       </c>
-      <c r="R1809" t="inlineStr"/>
+      <c r="R1809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1810">
       <c r="A1810" s="2" t="n">
@@ -101813,7 +101829,9 @@
       <c r="Q1810" t="n">
         <v>0</v>
       </c>
-      <c r="R1810" t="inlineStr"/>
+      <c r="R1810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1811">
       <c r="A1811" s="2" t="n">
@@ -101867,7 +101885,279 @@
       <c r="Q1811" t="n">
         <v>0</v>
       </c>
-      <c r="R1811" t="inlineStr"/>
+      <c r="R1811" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1812">
+      <c r="A1812" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B1812" t="n">
+        <v>650.0999755859375</v>
+      </c>
+      <c r="C1812" t="n">
+        <v>658.9000244140625</v>
+      </c>
+      <c r="D1812" t="n">
+        <v>632</v>
+      </c>
+      <c r="E1812" t="n">
+        <v>642.8499755859375</v>
+      </c>
+      <c r="F1812" t="n">
+        <v>642.8499755859375</v>
+      </c>
+      <c r="G1812" t="n">
+        <v>79316</v>
+      </c>
+      <c r="H1812" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1812" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1812" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1812" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1812" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1812" t="inlineStr"/>
+    </row>
+    <row r="1813">
+      <c r="A1813" s="2" t="n">
+        <v>45510</v>
+      </c>
+      <c r="B1813" t="n">
+        <v>643.0999755859375</v>
+      </c>
+      <c r="C1813" t="n">
+        <v>654.9500122070312</v>
+      </c>
+      <c r="D1813" t="n">
+        <v>635</v>
+      </c>
+      <c r="E1813" t="n">
+        <v>637.7999877929688</v>
+      </c>
+      <c r="F1813" t="n">
+        <v>637.7999877929688</v>
+      </c>
+      <c r="G1813" t="n">
+        <v>95513</v>
+      </c>
+      <c r="H1813" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1813" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1813" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1813" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1813" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1813" t="inlineStr"/>
+    </row>
+    <row r="1814">
+      <c r="A1814" s="2" t="n">
+        <v>45511</v>
+      </c>
+      <c r="B1814" t="n">
+        <v>641</v>
+      </c>
+      <c r="C1814" t="n">
+        <v>652.7000122070312</v>
+      </c>
+      <c r="D1814" t="n">
+        <v>637</v>
+      </c>
+      <c r="E1814" t="n">
+        <v>650</v>
+      </c>
+      <c r="F1814" t="n">
+        <v>650</v>
+      </c>
+      <c r="G1814" t="n">
+        <v>36741</v>
+      </c>
+      <c r="H1814" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1814" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1814" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1814" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1814" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1814" t="inlineStr"/>
+    </row>
+    <row r="1815">
+      <c r="A1815" s="2" t="n">
+        <v>45512</v>
+      </c>
+      <c r="B1815" t="n">
+        <v>654.7000122070312</v>
+      </c>
+      <c r="C1815" t="n">
+        <v>677</v>
+      </c>
+      <c r="D1815" t="n">
+        <v>650</v>
+      </c>
+      <c r="E1815" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="F1815" t="n">
+        <v>667.3499755859375</v>
+      </c>
+      <c r="G1815" t="n">
+        <v>94166</v>
+      </c>
+      <c r="H1815" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1815" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1815" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1815" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1815" t="inlineStr"/>
+    </row>
+    <row r="1816">
+      <c r="A1816" s="2" t="n">
+        <v>45513</v>
+      </c>
+      <c r="B1816" t="n">
+        <v>662</v>
+      </c>
+      <c r="C1816" t="n">
+        <v>669.7999877929688</v>
+      </c>
+      <c r="D1816" t="n">
+        <v>622.2999877929688</v>
+      </c>
+      <c r="E1816" t="n">
+        <v>626.0999755859375</v>
+      </c>
+      <c r="F1816" t="n">
+        <v>626.0999755859375</v>
+      </c>
+      <c r="G1816" t="n">
+        <v>337826</v>
+      </c>
+      <c r="H1816" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1816" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1816" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1816" t="n">
+        <v>32</v>
+      </c>
+      <c r="O1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1816" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1816" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1816"/>
+  <dimension ref="A1:R1820"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -101941,7 +101941,9 @@
       <c r="Q1812" t="n">
         <v>0</v>
       </c>
-      <c r="R1812" t="inlineStr"/>
+      <c r="R1812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1813">
       <c r="A1813" s="2" t="n">
@@ -101995,7 +101997,9 @@
       <c r="Q1813" t="n">
         <v>0</v>
       </c>
-      <c r="R1813" t="inlineStr"/>
+      <c r="R1813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1814">
       <c r="A1814" s="2" t="n">
@@ -102049,7 +102053,9 @@
       <c r="Q1814" t="n">
         <v>0</v>
       </c>
-      <c r="R1814" t="inlineStr"/>
+      <c r="R1814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1815">
       <c r="A1815" s="2" t="n">
@@ -102103,7 +102109,9 @@
       <c r="Q1815" t="n">
         <v>0</v>
       </c>
-      <c r="R1815" t="inlineStr"/>
+      <c r="R1815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1816">
       <c r="A1816" s="2" t="n">
@@ -102157,7 +102165,225 @@
       <c r="Q1816" t="n">
         <v>0</v>
       </c>
-      <c r="R1816" t="inlineStr"/>
+      <c r="R1816" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1817">
+      <c r="A1817" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B1817" t="n">
+        <v>626.5499877929688</v>
+      </c>
+      <c r="C1817" t="n">
+        <v>626.5499877929688</v>
+      </c>
+      <c r="D1817" t="n">
+        <v>586.2000122070312</v>
+      </c>
+      <c r="E1817" t="n">
+        <v>591.7000122070312</v>
+      </c>
+      <c r="F1817" t="n">
+        <v>591.7000122070312</v>
+      </c>
+      <c r="G1817" t="n">
+        <v>292622</v>
+      </c>
+      <c r="H1817" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1817" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1817" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1817" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1817" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1817" t="inlineStr"/>
+    </row>
+    <row r="1818">
+      <c r="A1818" s="2" t="n">
+        <v>45517</v>
+      </c>
+      <c r="B1818" t="n">
+        <v>591.9500122070312</v>
+      </c>
+      <c r="C1818" t="n">
+        <v>618.2999877929688</v>
+      </c>
+      <c r="D1818" t="n">
+        <v>588.8499755859375</v>
+      </c>
+      <c r="E1818" t="n">
+        <v>601.7999877929688</v>
+      </c>
+      <c r="F1818" t="n">
+        <v>601.7999877929688</v>
+      </c>
+      <c r="G1818" t="n">
+        <v>158402</v>
+      </c>
+      <c r="H1818" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1818" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1818" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1818" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1818" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1818" t="inlineStr"/>
+    </row>
+    <row r="1819">
+      <c r="A1819" s="2" t="n">
+        <v>45518</v>
+      </c>
+      <c r="B1819" t="n">
+        <v>602</v>
+      </c>
+      <c r="C1819" t="n">
+        <v>604.0999755859375</v>
+      </c>
+      <c r="D1819" t="n">
+        <v>586.2999877929688</v>
+      </c>
+      <c r="E1819" t="n">
+        <v>588.3499755859375</v>
+      </c>
+      <c r="F1819" t="n">
+        <v>588.3499755859375</v>
+      </c>
+      <c r="G1819" t="n">
+        <v>63168</v>
+      </c>
+      <c r="H1819" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1819" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1819" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1819" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1819" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1819" t="inlineStr"/>
+    </row>
+    <row r="1820">
+      <c r="A1820" s="2" t="n">
+        <v>45520</v>
+      </c>
+      <c r="B1820" t="n">
+        <v>594</v>
+      </c>
+      <c r="C1820" t="n">
+        <v>598.3499755859375</v>
+      </c>
+      <c r="D1820" t="n">
+        <v>575.2999877929688</v>
+      </c>
+      <c r="E1820" t="n">
+        <v>578.5</v>
+      </c>
+      <c r="F1820" t="n">
+        <v>578.5</v>
+      </c>
+      <c r="G1820" t="n">
+        <v>97780</v>
+      </c>
+      <c r="H1820" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1820" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1820" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1820" t="n">
+        <v>33</v>
+      </c>
+      <c r="O1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1820" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1820" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1820"/>
+  <dimension ref="A1:R1825"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102221,7 +102221,9 @@
       <c r="Q1817" t="n">
         <v>0</v>
       </c>
-      <c r="R1817" t="inlineStr"/>
+      <c r="R1817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1818">
       <c r="A1818" s="2" t="n">
@@ -102275,7 +102277,9 @@
       <c r="Q1818" t="n">
         <v>0</v>
       </c>
-      <c r="R1818" t="inlineStr"/>
+      <c r="R1818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1819">
       <c r="A1819" s="2" t="n">
@@ -102329,7 +102333,9 @@
       <c r="Q1819" t="n">
         <v>0</v>
       </c>
-      <c r="R1819" t="inlineStr"/>
+      <c r="R1819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1820">
       <c r="A1820" s="2" t="n">
@@ -102383,7 +102389,279 @@
       <c r="Q1820" t="n">
         <v>0</v>
       </c>
-      <c r="R1820" t="inlineStr"/>
+      <c r="R1820" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1821">
+      <c r="A1821" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B1821" t="n">
+        <v>584.9000244140625</v>
+      </c>
+      <c r="C1821" t="n">
+        <v>589.5</v>
+      </c>
+      <c r="D1821" t="n">
+        <v>574.25</v>
+      </c>
+      <c r="E1821" t="n">
+        <v>581.9500122070312</v>
+      </c>
+      <c r="F1821" t="n">
+        <v>581.9500122070312</v>
+      </c>
+      <c r="G1821" t="n">
+        <v>75200</v>
+      </c>
+      <c r="H1821" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1821" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1821" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1821" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1821" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1821" t="inlineStr"/>
+    </row>
+    <row r="1822">
+      <c r="A1822" s="2" t="n">
+        <v>45524</v>
+      </c>
+      <c r="B1822" t="n">
+        <v>585</v>
+      </c>
+      <c r="C1822" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="D1822" t="n">
+        <v>583</v>
+      </c>
+      <c r="E1822" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="F1822" t="n">
+        <v>593.8499755859375</v>
+      </c>
+      <c r="G1822" t="n">
+        <v>71129</v>
+      </c>
+      <c r="H1822" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1822" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1822" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1822" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1822" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1822" t="inlineStr"/>
+    </row>
+    <row r="1823">
+      <c r="A1823" s="2" t="n">
+        <v>45525</v>
+      </c>
+      <c r="B1823" t="n">
+        <v>596.8499755859375</v>
+      </c>
+      <c r="C1823" t="n">
+        <v>598.1500244140625</v>
+      </c>
+      <c r="D1823" t="n">
+        <v>586.4000244140625</v>
+      </c>
+      <c r="E1823" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="F1823" t="n">
+        <v>592.4000244140625</v>
+      </c>
+      <c r="G1823" t="n">
+        <v>65405</v>
+      </c>
+      <c r="H1823" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1823" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1823" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1823" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1823" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1823" t="inlineStr"/>
+    </row>
+    <row r="1824">
+      <c r="A1824" s="2" t="n">
+        <v>45526</v>
+      </c>
+      <c r="B1824" t="n">
+        <v>595.7999877929688</v>
+      </c>
+      <c r="C1824" t="n">
+        <v>607.5</v>
+      </c>
+      <c r="D1824" t="n">
+        <v>592</v>
+      </c>
+      <c r="E1824" t="n">
+        <v>605.0999755859375</v>
+      </c>
+      <c r="F1824" t="n">
+        <v>605.0999755859375</v>
+      </c>
+      <c r="G1824" t="n">
+        <v>83363</v>
+      </c>
+      <c r="H1824" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1824" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1824" t="n">
+        <v>22</v>
+      </c>
+      <c r="K1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1824" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1824" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1824" t="inlineStr"/>
+    </row>
+    <row r="1825">
+      <c r="A1825" s="2" t="n">
+        <v>45527</v>
+      </c>
+      <c r="B1825" t="n">
+        <v>608</v>
+      </c>
+      <c r="C1825" t="n">
+        <v>608.1500244140625</v>
+      </c>
+      <c r="D1825" t="n">
+        <v>596.9500122070312</v>
+      </c>
+      <c r="E1825" t="n">
+        <v>600.7999877929688</v>
+      </c>
+      <c r="F1825" t="n">
+        <v>600.7999877929688</v>
+      </c>
+      <c r="G1825" t="n">
+        <v>79934</v>
+      </c>
+      <c r="H1825" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1825" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1825" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1825" t="n">
+        <v>34</v>
+      </c>
+      <c r="O1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1825" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1825" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1825"/>
+  <dimension ref="A1:R1830"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102445,7 +102445,9 @@
       <c r="Q1821" t="n">
         <v>0</v>
       </c>
-      <c r="R1821" t="inlineStr"/>
+      <c r="R1821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1822">
       <c r="A1822" s="2" t="n">
@@ -102499,7 +102501,9 @@
       <c r="Q1822" t="n">
         <v>0</v>
       </c>
-      <c r="R1822" t="inlineStr"/>
+      <c r="R1822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1823">
       <c r="A1823" s="2" t="n">
@@ -102553,7 +102557,9 @@
       <c r="Q1823" t="n">
         <v>0</v>
       </c>
-      <c r="R1823" t="inlineStr"/>
+      <c r="R1823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1824">
       <c r="A1824" s="2" t="n">
@@ -102607,7 +102613,9 @@
       <c r="Q1824" t="n">
         <v>0</v>
       </c>
-      <c r="R1824" t="inlineStr"/>
+      <c r="R1824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1825">
       <c r="A1825" s="2" t="n">
@@ -102661,7 +102669,279 @@
       <c r="Q1825" t="n">
         <v>0</v>
       </c>
-      <c r="R1825" t="inlineStr"/>
+      <c r="R1825" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1826">
+      <c r="A1826" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1826" t="n">
+        <v>604.9500122070312</v>
+      </c>
+      <c r="C1826" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1826" t="n">
+        <v>594</v>
+      </c>
+      <c r="E1826" t="n">
+        <v>599.4000244140625</v>
+      </c>
+      <c r="F1826" t="n">
+        <v>599.4000244140625</v>
+      </c>
+      <c r="G1826" t="n">
+        <v>78024</v>
+      </c>
+      <c r="H1826" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1826" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1826" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1826" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1826" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1826" t="inlineStr"/>
+    </row>
+    <row r="1827">
+      <c r="A1827" s="2" t="n">
+        <v>45531</v>
+      </c>
+      <c r="B1827" t="n">
+        <v>602.2999877929688</v>
+      </c>
+      <c r="C1827" t="n">
+        <v>613.9500122070312</v>
+      </c>
+      <c r="D1827" t="n">
+        <v>598</v>
+      </c>
+      <c r="E1827" t="n">
+        <v>600.9500122070312</v>
+      </c>
+      <c r="F1827" t="n">
+        <v>600.9500122070312</v>
+      </c>
+      <c r="G1827" t="n">
+        <v>91496</v>
+      </c>
+      <c r="H1827" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1827" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1827" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1827" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1827" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1827" t="inlineStr"/>
+    </row>
+    <row r="1828">
+      <c r="A1828" s="2" t="n">
+        <v>45532</v>
+      </c>
+      <c r="B1828" t="n">
+        <v>604</v>
+      </c>
+      <c r="C1828" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1828" t="n">
+        <v>598.25</v>
+      </c>
+      <c r="E1828" t="n">
+        <v>601.0499877929688</v>
+      </c>
+      <c r="F1828" t="n">
+        <v>601.0499877929688</v>
+      </c>
+      <c r="G1828" t="n">
+        <v>67993</v>
+      </c>
+      <c r="H1828" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1828" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1828" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1828" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1828" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1828" t="inlineStr"/>
+    </row>
+    <row r="1829">
+      <c r="A1829" s="2" t="n">
+        <v>45533</v>
+      </c>
+      <c r="B1829" t="n">
+        <v>604.5999755859375</v>
+      </c>
+      <c r="C1829" t="n">
+        <v>605</v>
+      </c>
+      <c r="D1829" t="n">
+        <v>593</v>
+      </c>
+      <c r="E1829" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="F1829" t="n">
+        <v>596.2999877929688</v>
+      </c>
+      <c r="G1829" t="n">
+        <v>58722</v>
+      </c>
+      <c r="H1829" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1829" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1829" t="n">
+        <v>29</v>
+      </c>
+      <c r="K1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1829" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1829" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1829" t="inlineStr"/>
+    </row>
+    <row r="1830">
+      <c r="A1830" s="2" t="n">
+        <v>45534</v>
+      </c>
+      <c r="B1830" t="n">
+        <v>599.2999877929688</v>
+      </c>
+      <c r="C1830" t="n">
+        <v>603.2000122070312</v>
+      </c>
+      <c r="D1830" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1830" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="F1830" t="n">
+        <v>598.5999755859375</v>
+      </c>
+      <c r="G1830" t="n">
+        <v>78160</v>
+      </c>
+      <c r="H1830" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1830" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1830" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1830" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1830" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1830" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1830"/>
+  <dimension ref="A1:R1835"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -102437,7 +102437,7 @@
         <v>34</v>
       </c>
       <c r="O1821" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P1821" t="n">
         <v>0</v>
@@ -102725,7 +102725,9 @@
       <c r="Q1826" t="n">
         <v>0</v>
       </c>
-      <c r="R1826" t="inlineStr"/>
+      <c r="R1826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1827">
       <c r="A1827" s="2" t="n">
@@ -102779,7 +102781,9 @@
       <c r="Q1827" t="n">
         <v>0</v>
       </c>
-      <c r="R1827" t="inlineStr"/>
+      <c r="R1827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1828">
       <c r="A1828" s="2" t="n">
@@ -102833,7 +102837,9 @@
       <c r="Q1828" t="n">
         <v>0</v>
       </c>
-      <c r="R1828" t="inlineStr"/>
+      <c r="R1828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1829">
       <c r="A1829" s="2" t="n">
@@ -102887,7 +102893,9 @@
       <c r="Q1829" t="n">
         <v>0</v>
       </c>
-      <c r="R1829" t="inlineStr"/>
+      <c r="R1829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1830">
       <c r="A1830" s="2" t="n">
@@ -102941,7 +102949,279 @@
       <c r="Q1830" t="n">
         <v>0</v>
       </c>
-      <c r="R1830" t="inlineStr"/>
+      <c r="R1830" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1831">
+      <c r="A1831" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1831" t="n">
+        <v>600</v>
+      </c>
+      <c r="C1831" t="n">
+        <v>606</v>
+      </c>
+      <c r="D1831" t="n">
+        <v>595.75</v>
+      </c>
+      <c r="E1831" t="n">
+        <v>600.7999877929688</v>
+      </c>
+      <c r="F1831" t="n">
+        <v>600.7999877929688</v>
+      </c>
+      <c r="G1831" t="n">
+        <v>111804</v>
+      </c>
+      <c r="H1831" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1831" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1831" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1831" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1831" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1831" t="inlineStr"/>
+    </row>
+    <row r="1832">
+      <c r="A1832" s="2" t="n">
+        <v>45538</v>
+      </c>
+      <c r="B1832" t="n">
+        <v>603.8499755859375</v>
+      </c>
+      <c r="C1832" t="n">
+        <v>606.7000122070312</v>
+      </c>
+      <c r="D1832" t="n">
+        <v>597.5999755859375</v>
+      </c>
+      <c r="E1832" t="n">
+        <v>604.4500122070312</v>
+      </c>
+      <c r="F1832" t="n">
+        <v>604.4500122070312</v>
+      </c>
+      <c r="G1832" t="n">
+        <v>58218</v>
+      </c>
+      <c r="H1832" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1832" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1832" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1832" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1832" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1832" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1832" t="inlineStr"/>
+    </row>
+    <row r="1833">
+      <c r="A1833" s="2" t="n">
+        <v>45539</v>
+      </c>
+      <c r="B1833" t="n">
+        <v>597</v>
+      </c>
+      <c r="C1833" t="n">
+        <v>606.4500122070312</v>
+      </c>
+      <c r="D1833" t="n">
+        <v>595</v>
+      </c>
+      <c r="E1833" t="n">
+        <v>597.25</v>
+      </c>
+      <c r="F1833" t="n">
+        <v>597.25</v>
+      </c>
+      <c r="G1833" t="n">
+        <v>60746</v>
+      </c>
+      <c r="H1833" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1833" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1833" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1833" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1833" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1833" t="inlineStr"/>
+    </row>
+    <row r="1834">
+      <c r="A1834" s="2" t="n">
+        <v>45540</v>
+      </c>
+      <c r="B1834" t="n">
+        <v>600.4000244140625</v>
+      </c>
+      <c r="C1834" t="n">
+        <v>610.2999877929688</v>
+      </c>
+      <c r="D1834" t="n">
+        <v>581.5499877929688</v>
+      </c>
+      <c r="E1834" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="F1834" t="n">
+        <v>587.75</v>
+      </c>
+      <c r="G1834" t="n">
+        <v>135451</v>
+      </c>
+      <c r="H1834" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1834" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1834" t="n">
+        <v>5</v>
+      </c>
+      <c r="K1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1834" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1834" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1834" t="inlineStr"/>
+    </row>
+    <row r="1835">
+      <c r="A1835" s="2" t="n">
+        <v>45541</v>
+      </c>
+      <c r="B1835" t="n">
+        <v>590.7999877929688</v>
+      </c>
+      <c r="C1835" t="n">
+        <v>594.3499755859375</v>
+      </c>
+      <c r="D1835" t="n">
+        <v>572.5</v>
+      </c>
+      <c r="E1835" t="n">
+        <v>574.7999877929688</v>
+      </c>
+      <c r="F1835" t="n">
+        <v>574.7999877929688</v>
+      </c>
+      <c r="G1835" t="n">
+        <v>92378</v>
+      </c>
+      <c r="H1835" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1835" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1835" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1835" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1835" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1835" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1835"/>
+  <dimension ref="A1:R1840"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103005,7 +103005,9 @@
       <c r="Q1831" t="n">
         <v>0</v>
       </c>
-      <c r="R1831" t="inlineStr"/>
+      <c r="R1831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1832">
       <c r="A1832" s="2" t="n">
@@ -103059,7 +103061,9 @@
       <c r="Q1832" t="n">
         <v>1</v>
       </c>
-      <c r="R1832" t="inlineStr"/>
+      <c r="R1832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1833">
       <c r="A1833" s="2" t="n">
@@ -103113,7 +103117,9 @@
       <c r="Q1833" t="n">
         <v>0</v>
       </c>
-      <c r="R1833" t="inlineStr"/>
+      <c r="R1833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1834">
       <c r="A1834" s="2" t="n">
@@ -103167,7 +103173,9 @@
       <c r="Q1834" t="n">
         <v>0</v>
       </c>
-      <c r="R1834" t="inlineStr"/>
+      <c r="R1834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1835">
       <c r="A1835" s="2" t="n">
@@ -103221,7 +103229,279 @@
       <c r="Q1835" t="n">
         <v>0</v>
       </c>
-      <c r="R1835" t="inlineStr"/>
+      <c r="R1835" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1836">
+      <c r="A1836" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1836" t="n">
+        <v>574.9500122070312</v>
+      </c>
+      <c r="C1836" t="n">
+        <v>577.7000122070312</v>
+      </c>
+      <c r="D1836" t="n">
+        <v>561.7999877929688</v>
+      </c>
+      <c r="E1836" t="n">
+        <v>563.8499755859375</v>
+      </c>
+      <c r="F1836" t="n">
+        <v>563.8499755859375</v>
+      </c>
+      <c r="G1836" t="n">
+        <v>73447</v>
+      </c>
+      <c r="H1836" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1836" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1836" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1836" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1836" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1836" t="inlineStr"/>
+    </row>
+    <row r="1837">
+      <c r="A1837" s="2" t="n">
+        <v>45545</v>
+      </c>
+      <c r="B1837" t="n">
+        <v>566.7000122070312</v>
+      </c>
+      <c r="C1837" t="n">
+        <v>586.25</v>
+      </c>
+      <c r="D1837" t="n">
+        <v>565.2000122070312</v>
+      </c>
+      <c r="E1837" t="n">
+        <v>580.9500122070312</v>
+      </c>
+      <c r="F1837" t="n">
+        <v>580.9500122070312</v>
+      </c>
+      <c r="G1837" t="n">
+        <v>89447</v>
+      </c>
+      <c r="H1837" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1837" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1837" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1837" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1837" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1837" t="inlineStr"/>
+    </row>
+    <row r="1838">
+      <c r="A1838" s="2" t="n">
+        <v>45546</v>
+      </c>
+      <c r="B1838" t="n">
+        <v>583.9000244140625</v>
+      </c>
+      <c r="C1838" t="n">
+        <v>603</v>
+      </c>
+      <c r="D1838" t="n">
+        <v>582</v>
+      </c>
+      <c r="E1838" t="n">
+        <v>584.2000122070312</v>
+      </c>
+      <c r="F1838" t="n">
+        <v>584.2000122070312</v>
+      </c>
+      <c r="G1838" t="n">
+        <v>129250</v>
+      </c>
+      <c r="H1838" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1838" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1838" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1838" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1838" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1838" t="inlineStr"/>
+    </row>
+    <row r="1839">
+      <c r="A1839" s="2" t="n">
+        <v>45547</v>
+      </c>
+      <c r="B1839" t="n">
+        <v>582.3499755859375</v>
+      </c>
+      <c r="C1839" t="n">
+        <v>585</v>
+      </c>
+      <c r="D1839" t="n">
+        <v>569.5</v>
+      </c>
+      <c r="E1839" t="n">
+        <v>571.9500122070312</v>
+      </c>
+      <c r="F1839" t="n">
+        <v>571.9500122070312</v>
+      </c>
+      <c r="G1839" t="n">
+        <v>98807</v>
+      </c>
+      <c r="H1839" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1839" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1839" t="n">
+        <v>12</v>
+      </c>
+      <c r="K1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1839" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1839" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1839" t="inlineStr"/>
+    </row>
+    <row r="1840">
+      <c r="A1840" s="2" t="n">
+        <v>45548</v>
+      </c>
+      <c r="B1840" t="n">
+        <v>575</v>
+      </c>
+      <c r="C1840" t="n">
+        <v>578.4500122070312</v>
+      </c>
+      <c r="D1840" t="n">
+        <v>571</v>
+      </c>
+      <c r="E1840" t="n">
+        <v>571.9000244140625</v>
+      </c>
+      <c r="F1840" t="n">
+        <v>571.9000244140625</v>
+      </c>
+      <c r="G1840" t="n">
+        <v>54477</v>
+      </c>
+      <c r="H1840" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1840" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1840" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1840" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1840" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1840" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1840"/>
+  <dimension ref="A1:R1845"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103285,7 +103285,9 @@
       <c r="Q1836" t="n">
         <v>0</v>
       </c>
-      <c r="R1836" t="inlineStr"/>
+      <c r="R1836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1837">
       <c r="A1837" s="2" t="n">
@@ -103339,7 +103341,9 @@
       <c r="Q1837" t="n">
         <v>0</v>
       </c>
-      <c r="R1837" t="inlineStr"/>
+      <c r="R1837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1838">
       <c r="A1838" s="2" t="n">
@@ -103393,7 +103397,9 @@
       <c r="Q1838" t="n">
         <v>0</v>
       </c>
-      <c r="R1838" t="inlineStr"/>
+      <c r="R1838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1839">
       <c r="A1839" s="2" t="n">
@@ -103447,7 +103453,9 @@
       <c r="Q1839" t="n">
         <v>0</v>
       </c>
-      <c r="R1839" t="inlineStr"/>
+      <c r="R1839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1840">
       <c r="A1840" s="2" t="n">
@@ -103501,7 +103509,279 @@
       <c r="Q1840" t="n">
         <v>0</v>
       </c>
-      <c r="R1840" t="inlineStr"/>
+      <c r="R1840" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1841">
+      <c r="A1841" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1841" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="C1841" t="n">
+        <v>586</v>
+      </c>
+      <c r="D1841" t="n">
+        <v>573.9000244140625</v>
+      </c>
+      <c r="E1841" t="n">
+        <v>577.0499877929688</v>
+      </c>
+      <c r="F1841" t="n">
+        <v>577.0499877929688</v>
+      </c>
+      <c r="G1841" t="n">
+        <v>53442</v>
+      </c>
+      <c r="H1841" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1841" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1841" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1841" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1841" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1841" t="inlineStr"/>
+    </row>
+    <row r="1842">
+      <c r="A1842" s="2" t="n">
+        <v>45552</v>
+      </c>
+      <c r="B1842" t="n">
+        <v>577.0999755859375</v>
+      </c>
+      <c r="C1842" t="n">
+        <v>581.2000122070312</v>
+      </c>
+      <c r="D1842" t="n">
+        <v>570.0499877929688</v>
+      </c>
+      <c r="E1842" t="n">
+        <v>573.5999755859375</v>
+      </c>
+      <c r="F1842" t="n">
+        <v>573.5999755859375</v>
+      </c>
+      <c r="G1842" t="n">
+        <v>50854</v>
+      </c>
+      <c r="H1842" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1842" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1842" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1842" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1842" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1842" t="inlineStr"/>
+    </row>
+    <row r="1843">
+      <c r="A1843" s="2" t="n">
+        <v>45553</v>
+      </c>
+      <c r="B1843" t="n">
+        <v>573.5999755859375</v>
+      </c>
+      <c r="C1843" t="n">
+        <v>576</v>
+      </c>
+      <c r="D1843" t="n">
+        <v>567.0499877929688</v>
+      </c>
+      <c r="E1843" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="F1843" t="n">
+        <v>569.75</v>
+      </c>
+      <c r="G1843" t="n">
+        <v>46017</v>
+      </c>
+      <c r="H1843" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1843" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1843" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1843" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1843" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1843" t="inlineStr"/>
+    </row>
+    <row r="1844">
+      <c r="A1844" s="2" t="n">
+        <v>45554</v>
+      </c>
+      <c r="B1844" t="n">
+        <v>570</v>
+      </c>
+      <c r="C1844" t="n">
+        <v>572.7000122070312</v>
+      </c>
+      <c r="D1844" t="n">
+        <v>554</v>
+      </c>
+      <c r="E1844" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="F1844" t="n">
+        <v>563.7999877929688</v>
+      </c>
+      <c r="G1844" t="n">
+        <v>102605</v>
+      </c>
+      <c r="H1844" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1844" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1844" t="n">
+        <v>19</v>
+      </c>
+      <c r="K1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1844" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1844" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1844" t="inlineStr"/>
+    </row>
+    <row r="1845">
+      <c r="A1845" s="2" t="n">
+        <v>45555</v>
+      </c>
+      <c r="B1845" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="C1845" t="n">
+        <v>566.5499877929688</v>
+      </c>
+      <c r="D1845" t="n">
+        <v>552.0499877929688</v>
+      </c>
+      <c r="E1845" t="n">
+        <v>556.9500122070312</v>
+      </c>
+      <c r="F1845" t="n">
+        <v>556.9500122070312</v>
+      </c>
+      <c r="G1845" t="n">
+        <v>58770</v>
+      </c>
+      <c r="H1845" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1845" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1845" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1845" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1845" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1845" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1845"/>
+  <dimension ref="A1:R1850"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103565,7 +103565,9 @@
       <c r="Q1841" t="n">
         <v>0</v>
       </c>
-      <c r="R1841" t="inlineStr"/>
+      <c r="R1841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1842">
       <c r="A1842" s="2" t="n">
@@ -103619,7 +103621,9 @@
       <c r="Q1842" t="n">
         <v>0</v>
       </c>
-      <c r="R1842" t="inlineStr"/>
+      <c r="R1842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1843">
       <c r="A1843" s="2" t="n">
@@ -103673,7 +103677,9 @@
       <c r="Q1843" t="n">
         <v>0</v>
       </c>
-      <c r="R1843" t="inlineStr"/>
+      <c r="R1843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1844">
       <c r="A1844" s="2" t="n">
@@ -103727,7 +103733,9 @@
       <c r="Q1844" t="n">
         <v>0</v>
       </c>
-      <c r="R1844" t="inlineStr"/>
+      <c r="R1844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1845">
       <c r="A1845" s="2" t="n">
@@ -103781,7 +103789,279 @@
       <c r="Q1845" t="n">
         <v>0</v>
       </c>
-      <c r="R1845" t="inlineStr"/>
+      <c r="R1845" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1846">
+      <c r="A1846" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1846" t="n">
+        <v>560</v>
+      </c>
+      <c r="C1846" t="n">
+        <v>565.7000122070312</v>
+      </c>
+      <c r="D1846" t="n">
+        <v>557</v>
+      </c>
+      <c r="E1846" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="F1846" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="G1846" t="n">
+        <v>81155</v>
+      </c>
+      <c r="H1846" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1846" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1846" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1846" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1846" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1846" t="inlineStr"/>
+    </row>
+    <row r="1847">
+      <c r="A1847" s="2" t="n">
+        <v>45559</v>
+      </c>
+      <c r="B1847" t="n">
+        <v>560.4500122070312</v>
+      </c>
+      <c r="C1847" t="n">
+        <v>561.8499755859375</v>
+      </c>
+      <c r="D1847" t="n">
+        <v>545.0499877929688</v>
+      </c>
+      <c r="E1847" t="n">
+        <v>548.0999755859375</v>
+      </c>
+      <c r="F1847" t="n">
+        <v>548.0999755859375</v>
+      </c>
+      <c r="G1847" t="n">
+        <v>90936</v>
+      </c>
+      <c r="H1847" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1847" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1847" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1847" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1847" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1847" t="inlineStr"/>
+    </row>
+    <row r="1848">
+      <c r="A1848" s="2" t="n">
+        <v>45560</v>
+      </c>
+      <c r="B1848" t="n">
+        <v>544</v>
+      </c>
+      <c r="C1848" t="n">
+        <v>545.0999755859375</v>
+      </c>
+      <c r="D1848" t="n">
+        <v>529.7999877929688</v>
+      </c>
+      <c r="E1848" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="F1848" t="n">
+        <v>531.0999755859375</v>
+      </c>
+      <c r="G1848" t="n">
+        <v>144620</v>
+      </c>
+      <c r="H1848" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1848" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1848" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1848" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1848" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1848" t="inlineStr"/>
+    </row>
+    <row r="1849">
+      <c r="A1849" s="2" t="n">
+        <v>45561</v>
+      </c>
+      <c r="B1849" t="n">
+        <v>531.7999877929688</v>
+      </c>
+      <c r="C1849" t="n">
+        <v>536</v>
+      </c>
+      <c r="D1849" t="n">
+        <v>524.1500244140625</v>
+      </c>
+      <c r="E1849" t="n">
+        <v>532.2999877929688</v>
+      </c>
+      <c r="F1849" t="n">
+        <v>532.2999877929688</v>
+      </c>
+      <c r="G1849" t="n">
+        <v>106435</v>
+      </c>
+      <c r="H1849" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1849" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1849" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1849" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1849" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1849" t="inlineStr"/>
+    </row>
+    <row r="1850">
+      <c r="A1850" s="2" t="n">
+        <v>45562</v>
+      </c>
+      <c r="B1850" t="n">
+        <v>538</v>
+      </c>
+      <c r="C1850" t="n">
+        <v>541.3499755859375</v>
+      </c>
+      <c r="D1850" t="n">
+        <v>528.3499755859375</v>
+      </c>
+      <c r="E1850" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="F1850" t="n">
+        <v>533.5</v>
+      </c>
+      <c r="G1850" t="n">
+        <v>58115</v>
+      </c>
+      <c r="H1850" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1850" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1850" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1850" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1850" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1850" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1850"/>
+  <dimension ref="A1:R1854"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -103845,7 +103845,9 @@
       <c r="Q1846" t="n">
         <v>0</v>
       </c>
-      <c r="R1846" t="inlineStr"/>
+      <c r="R1846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1847">
       <c r="A1847" s="2" t="n">
@@ -103899,7 +103901,9 @@
       <c r="Q1847" t="n">
         <v>0</v>
       </c>
-      <c r="R1847" t="inlineStr"/>
+      <c r="R1847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1848">
       <c r="A1848" s="2" t="n">
@@ -103953,7 +103957,9 @@
       <c r="Q1848" t="n">
         <v>0</v>
       </c>
-      <c r="R1848" t="inlineStr"/>
+      <c r="R1848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1849">
       <c r="A1849" s="2" t="n">
@@ -104007,7 +104013,9 @@
       <c r="Q1849" t="n">
         <v>0</v>
       </c>
-      <c r="R1849" t="inlineStr"/>
+      <c r="R1849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1850">
       <c r="A1850" s="2" t="n">
@@ -104061,7 +104069,225 @@
       <c r="Q1850" t="n">
         <v>0</v>
       </c>
-      <c r="R1850" t="inlineStr"/>
+      <c r="R1850" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1851">
+      <c r="A1851" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1851" t="n">
+        <v>534</v>
+      </c>
+      <c r="C1851" t="n">
+        <v>534</v>
+      </c>
+      <c r="D1851" t="n">
+        <v>521.0499877929688</v>
+      </c>
+      <c r="E1851" t="n">
+        <v>526.0499877929688</v>
+      </c>
+      <c r="F1851" t="n">
+        <v>526.0499877929688</v>
+      </c>
+      <c r="G1851" t="n">
+        <v>79137</v>
+      </c>
+      <c r="H1851" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1851" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1851" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1851" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1851" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1851" t="inlineStr"/>
+    </row>
+    <row r="1852">
+      <c r="A1852" s="2" t="n">
+        <v>45566</v>
+      </c>
+      <c r="B1852" t="n">
+        <v>527.6500244140625</v>
+      </c>
+      <c r="C1852" t="n">
+        <v>530.75</v>
+      </c>
+      <c r="D1852" t="n">
+        <v>521</v>
+      </c>
+      <c r="E1852" t="n">
+        <v>523.7999877929688</v>
+      </c>
+      <c r="F1852" t="n">
+        <v>523.7999877929688</v>
+      </c>
+      <c r="G1852" t="n">
+        <v>47099</v>
+      </c>
+      <c r="H1852" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1852" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1852" t="n">
+        <v>1</v>
+      </c>
+      <c r="K1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1852" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1852" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1852" t="inlineStr"/>
+    </row>
+    <row r="1853">
+      <c r="A1853" s="2" t="n">
+        <v>45568</v>
+      </c>
+      <c r="B1853" t="n">
+        <v>520.9500122070312</v>
+      </c>
+      <c r="C1853" t="n">
+        <v>524.9500122070312</v>
+      </c>
+      <c r="D1853" t="n">
+        <v>510.7000122070312</v>
+      </c>
+      <c r="E1853" t="n">
+        <v>516.3499755859375</v>
+      </c>
+      <c r="F1853" t="n">
+        <v>516.3499755859375</v>
+      </c>
+      <c r="G1853" t="n">
+        <v>75895</v>
+      </c>
+      <c r="H1853" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1853" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1853" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1853" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1853" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1853" t="inlineStr"/>
+    </row>
+    <row r="1854">
+      <c r="A1854" s="2" t="n">
+        <v>45569</v>
+      </c>
+      <c r="B1854" t="n">
+        <v>516.3499755859375</v>
+      </c>
+      <c r="C1854" t="n">
+        <v>518.4500122070312</v>
+      </c>
+      <c r="D1854" t="n">
+        <v>505.2999877929688</v>
+      </c>
+      <c r="E1854" t="n">
+        <v>512.5499877929688</v>
+      </c>
+      <c r="F1854" t="n">
+        <v>512.5499877929688</v>
+      </c>
+      <c r="G1854" t="n">
+        <v>97737</v>
+      </c>
+      <c r="H1854" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1854" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1854" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1854" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1854" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1854" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1d/SHANKARA.NS.xlsx
+++ b/stock_historical_data/1d/SHANKARA.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1854"/>
+  <dimension ref="A1:R1859"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -104125,7 +104125,9 @@
       <c r="Q1851" t="n">
         <v>0</v>
       </c>
-      <c r="R1851" t="inlineStr"/>
+      <c r="R1851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1852">
       <c r="A1852" s="2" t="n">
@@ -104179,7 +104181,9 @@
       <c r="Q1852" t="n">
         <v>0</v>
       </c>
-      <c r="R1852" t="inlineStr"/>
+      <c r="R1852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1853">
       <c r="A1853" s="2" t="n">
@@ -104233,7 +104237,9 @@
       <c r="Q1853" t="n">
         <v>0</v>
       </c>
-      <c r="R1853" t="inlineStr"/>
+      <c r="R1853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1854">
       <c r="A1854" s="2" t="n">
@@ -104287,7 +104293,279 @@
       <c r="Q1854" t="n">
         <v>0</v>
       </c>
-      <c r="R1854" t="inlineStr"/>
+      <c r="R1854" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1855">
+      <c r="A1855" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1855" t="n">
+        <v>505.3500061035156</v>
+      </c>
+      <c r="C1855" t="n">
+        <v>513.5</v>
+      </c>
+      <c r="D1855" t="n">
+        <v>490.1000061035156</v>
+      </c>
+      <c r="E1855" t="n">
+        <v>494.3999938964844</v>
+      </c>
+      <c r="F1855" t="n">
+        <v>494.3999938964844</v>
+      </c>
+      <c r="G1855" t="n">
+        <v>91879</v>
+      </c>
+      <c r="H1855" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1855" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1855" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1855" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1855" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1855" t="inlineStr"/>
+    </row>
+    <row r="1856">
+      <c r="A1856" s="2" t="n">
+        <v>45573</v>
+      </c>
+      <c r="B1856" t="n">
+        <v>494.4500122070312</v>
+      </c>
+      <c r="C1856" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="D1856" t="n">
+        <v>487.2999877929688</v>
+      </c>
+      <c r="E1856" t="n">
+        <v>508</v>
+      </c>
+      <c r="F1856" t="n">
+        <v>508</v>
+      </c>
+      <c r="G1856" t="n">
+        <v>133096</v>
+      </c>
+      <c r="H1856" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1856" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1856" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1856" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1856" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1856" t="inlineStr"/>
+    </row>
+    <row r="1857">
+      <c r="A1857" s="2" t="n">
+        <v>45574</v>
+      </c>
+      <c r="B1857" t="n">
+        <v>508</v>
+      </c>
+      <c r="C1857" t="n">
+        <v>518.7000122070312</v>
+      </c>
+      <c r="D1857" t="n">
+        <v>502</v>
+      </c>
+      <c r="E1857" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="F1857" t="n">
+        <v>504.5</v>
+      </c>
+      <c r="G1857" t="n">
+        <v>63698</v>
+      </c>
+      <c r="H1857" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1857" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1857" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1857" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1857" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1857" t="inlineStr"/>
+    </row>
+    <row r="1858">
+      <c r="A1858" s="2" t="n">
+        <v>45575</v>
+      </c>
+      <c r="B1858" t="n">
+        <v>507.8999938964844</v>
+      </c>
+      <c r="C1858" t="n">
+        <v>508</v>
+      </c>
+      <c r="D1858" t="n">
+        <v>500.6499938964844</v>
+      </c>
+      <c r="E1858" t="n">
+        <v>502.7999877929688</v>
+      </c>
+      <c r="F1858" t="n">
+        <v>502.7999877929688</v>
+      </c>
+      <c r="G1858" t="n">
+        <v>41031</v>
+      </c>
+      <c r="H1858" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1858" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1858" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1858" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1858" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1858" t="inlineStr"/>
+    </row>
+    <row r="1859">
+      <c r="A1859" s="2" t="n">
+        <v>45576</v>
+      </c>
+      <c r="B1859" t="n">
+        <v>500</v>
+      </c>
+      <c r="C1859" t="n">
+        <v>518.6500244140625</v>
+      </c>
+      <c r="D1859" t="n">
+        <v>498.3999938964844</v>
+      </c>
+      <c r="E1859" t="n">
+        <v>516.0999755859375</v>
+      </c>
+      <c r="F1859" t="n">
+        <v>516.0999755859375</v>
+      </c>
+      <c r="G1859" t="n">
+        <v>50515</v>
+      </c>
+      <c r="H1859" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1859" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1859" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1859" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1859" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1859" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
